--- a/doc/RegisterMapping.xlsx
+++ b/doc/RegisterMapping.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29426"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10201"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Posimsetty\Desktop\SAL_TaskAssignment\doc\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/varunposimsetty/Desktop/SAL_TaskAssignment/doc/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E06A9E4-814C-4885-8978-EB3FE7EB519F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB11A0A5-69C8-594D-BDC9-34BCA5EC6E3E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="38280" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{DE537055-B1E9-4F17-92F2-EA73B7270BD6}"/>
+    <workbookView xWindow="0" yWindow="720" windowWidth="29400" windowHeight="18400" xr2:uid="{DE537055-B1E9-4F17-92F2-EA73B7270BD6}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="21">
   <si>
     <t>Bit assignments</t>
   </si>
@@ -90,13 +90,22 @@
   </si>
   <si>
     <t>w</t>
+  </si>
+  <si>
+    <t>status</t>
+  </si>
+  <si>
+    <t>valid</t>
+  </si>
+  <si>
+    <t>pipe_status</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -105,14 +114,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Aptos Narrow"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Aptos Narrow"/>
@@ -141,11 +142,23 @@
       <family val="2"/>
     </font>
     <font>
-      <b/>
-      <sz val="12"/>
+      <sz val="18"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="18"/>
       <color theme="1"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -169,7 +182,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -229,32 +242,120 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="2" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -602,571 +703,579 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1ED67E81-A3A2-41BE-8E29-15C21AA9DC77}">
   <dimension ref="A4:AL14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="W32" sqref="W32"/>
+    <sheetView tabSelected="1" zoomScale="66" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4:AK12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.83203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="A4" s="2"/>
-      <c r="B4" s="2"/>
-      <c r="C4" s="2"/>
-      <c r="D4" s="2"/>
-      <c r="E4" s="2"/>
-      <c r="F4" s="1" t="s">
+    <row r="4" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="1"/>
+      <c r="B4" s="9"/>
+      <c r="C4" s="9"/>
+      <c r="D4" s="9"/>
+      <c r="E4" s="9"/>
+      <c r="F4" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="G4" s="1"/>
-      <c r="H4" s="1"/>
-      <c r="I4" s="1"/>
-      <c r="J4" s="1"/>
-      <c r="K4" s="1"/>
-      <c r="L4" s="1"/>
-      <c r="M4" s="1"/>
-      <c r="N4" s="1"/>
-      <c r="O4" s="1"/>
-      <c r="P4" s="1"/>
-      <c r="Q4" s="1"/>
-      <c r="R4" s="1"/>
-      <c r="S4" s="1"/>
-      <c r="T4" s="1"/>
-      <c r="U4" s="1"/>
-      <c r="V4" s="1"/>
-      <c r="W4" s="1"/>
-      <c r="X4" s="1"/>
-      <c r="Y4" s="1"/>
-      <c r="Z4" s="1"/>
-      <c r="AA4" s="1"/>
-      <c r="AB4" s="1"/>
-      <c r="AC4" s="1"/>
-      <c r="AD4" s="1"/>
-      <c r="AE4" s="1"/>
-      <c r="AF4" s="1"/>
-      <c r="AG4" s="1"/>
-      <c r="AH4" s="1"/>
-      <c r="AI4" s="1"/>
-      <c r="AJ4" s="1"/>
-      <c r="AK4" s="1"/>
-      <c r="AL4" s="2"/>
+      <c r="G4" s="4"/>
+      <c r="H4" s="4"/>
+      <c r="I4" s="4"/>
+      <c r="J4" s="4"/>
+      <c r="K4" s="4"/>
+      <c r="L4" s="4"/>
+      <c r="M4" s="4"/>
+      <c r="N4" s="4"/>
+      <c r="O4" s="4"/>
+      <c r="P4" s="4"/>
+      <c r="Q4" s="4"/>
+      <c r="R4" s="4"/>
+      <c r="S4" s="4"/>
+      <c r="T4" s="4"/>
+      <c r="U4" s="4"/>
+      <c r="V4" s="4"/>
+      <c r="W4" s="4"/>
+      <c r="X4" s="4"/>
+      <c r="Y4" s="4"/>
+      <c r="Z4" s="4"/>
+      <c r="AA4" s="4"/>
+      <c r="AB4" s="4"/>
+      <c r="AC4" s="4"/>
+      <c r="AD4" s="4"/>
+      <c r="AE4" s="4"/>
+      <c r="AF4" s="4"/>
+      <c r="AG4" s="4"/>
+      <c r="AH4" s="4"/>
+      <c r="AI4" s="4"/>
+      <c r="AJ4" s="4"/>
+      <c r="AK4" s="5"/>
+      <c r="AL4" s="1"/>
     </row>
-    <row r="5" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="A5" s="2"/>
-      <c r="B5" s="2"/>
-      <c r="C5" s="2"/>
-      <c r="D5" s="2"/>
-      <c r="E5" s="2"/>
-      <c r="F5" s="1"/>
-      <c r="G5" s="1"/>
-      <c r="H5" s="1"/>
-      <c r="I5" s="1"/>
-      <c r="J5" s="1"/>
-      <c r="K5" s="1"/>
-      <c r="L5" s="1"/>
-      <c r="M5" s="1"/>
-      <c r="N5" s="1"/>
-      <c r="O5" s="1"/>
-      <c r="P5" s="1"/>
-      <c r="Q5" s="1"/>
-      <c r="R5" s="1"/>
-      <c r="S5" s="1"/>
-      <c r="T5" s="1"/>
-      <c r="U5" s="1"/>
-      <c r="V5" s="1"/>
-      <c r="W5" s="1"/>
-      <c r="X5" s="1"/>
-      <c r="Y5" s="1"/>
-      <c r="Z5" s="1"/>
-      <c r="AA5" s="1"/>
-      <c r="AB5" s="1"/>
-      <c r="AC5" s="1"/>
-      <c r="AD5" s="1"/>
-      <c r="AE5" s="1"/>
-      <c r="AF5" s="1"/>
-      <c r="AG5" s="1"/>
-      <c r="AH5" s="1"/>
-      <c r="AI5" s="1"/>
-      <c r="AJ5" s="1"/>
-      <c r="AK5" s="1"/>
-      <c r="AL5" s="2"/>
+    <row r="5" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="1"/>
+      <c r="B5" s="9"/>
+      <c r="C5" s="9"/>
+      <c r="D5" s="9"/>
+      <c r="E5" s="9"/>
+      <c r="F5" s="6"/>
+      <c r="G5" s="7"/>
+      <c r="H5" s="7"/>
+      <c r="I5" s="7"/>
+      <c r="J5" s="7"/>
+      <c r="K5" s="7"/>
+      <c r="L5" s="7"/>
+      <c r="M5" s="7"/>
+      <c r="N5" s="7"/>
+      <c r="O5" s="7"/>
+      <c r="P5" s="7"/>
+      <c r="Q5" s="7"/>
+      <c r="R5" s="7"/>
+      <c r="S5" s="7"/>
+      <c r="T5" s="7"/>
+      <c r="U5" s="7"/>
+      <c r="V5" s="7"/>
+      <c r="W5" s="7"/>
+      <c r="X5" s="7"/>
+      <c r="Y5" s="7"/>
+      <c r="Z5" s="7"/>
+      <c r="AA5" s="7"/>
+      <c r="AB5" s="7"/>
+      <c r="AC5" s="7"/>
+      <c r="AD5" s="7"/>
+      <c r="AE5" s="7"/>
+      <c r="AF5" s="7"/>
+      <c r="AG5" s="7"/>
+      <c r="AH5" s="7"/>
+      <c r="AI5" s="7"/>
+      <c r="AJ5" s="7"/>
+      <c r="AK5" s="8"/>
+      <c r="AL5" s="1"/>
     </row>
-    <row r="6" spans="1:38" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="A6" s="2"/>
-      <c r="B6" s="2"/>
-      <c r="C6" s="2"/>
-      <c r="D6" s="2"/>
-      <c r="E6" s="2"/>
-      <c r="F6" s="3"/>
-      <c r="G6" s="3"/>
-      <c r="H6" s="3"/>
-      <c r="I6" s="3"/>
-      <c r="J6" s="3"/>
-      <c r="K6" s="3"/>
-      <c r="L6" s="3"/>
-      <c r="M6" s="3"/>
-      <c r="N6" s="3"/>
-      <c r="O6" s="3"/>
-      <c r="P6" s="3"/>
-      <c r="Q6" s="3"/>
-      <c r="R6" s="3"/>
-      <c r="S6" s="3"/>
-      <c r="T6" s="3"/>
-      <c r="U6" s="3"/>
-      <c r="V6" s="3"/>
-      <c r="W6" s="3"/>
-      <c r="X6" s="3"/>
-      <c r="Y6" s="3"/>
-      <c r="Z6" s="3"/>
-      <c r="AA6" s="3"/>
-      <c r="AB6" s="3"/>
-      <c r="AC6" s="3"/>
-      <c r="AD6" s="3"/>
-      <c r="AE6" s="3"/>
-      <c r="AF6" s="3"/>
-      <c r="AG6" s="3"/>
-      <c r="AH6" s="3"/>
-      <c r="AI6" s="3"/>
-      <c r="AJ6" s="3"/>
-      <c r="AK6" s="3"/>
-      <c r="AL6" s="2"/>
+    <row r="6" spans="1:38" ht="23" x14ac:dyDescent="0.25">
+      <c r="A6" s="1"/>
+      <c r="B6" s="9"/>
+      <c r="C6" s="9"/>
+      <c r="D6" s="9"/>
+      <c r="E6" s="10"/>
+      <c r="F6" s="2"/>
+      <c r="G6" s="2"/>
+      <c r="H6" s="2"/>
+      <c r="I6" s="2"/>
+      <c r="J6" s="2"/>
+      <c r="K6" s="2"/>
+      <c r="L6" s="2"/>
+      <c r="M6" s="2"/>
+      <c r="N6" s="2"/>
+      <c r="O6" s="2"/>
+      <c r="P6" s="2"/>
+      <c r="Q6" s="2"/>
+      <c r="R6" s="2"/>
+      <c r="S6" s="2"/>
+      <c r="T6" s="2"/>
+      <c r="U6" s="2"/>
+      <c r="V6" s="2"/>
+      <c r="W6" s="2"/>
+      <c r="X6" s="2"/>
+      <c r="Y6" s="2"/>
+      <c r="Z6" s="2"/>
+      <c r="AA6" s="2"/>
+      <c r="AB6" s="2"/>
+      <c r="AC6" s="2"/>
+      <c r="AD6" s="2"/>
+      <c r="AE6" s="2"/>
+      <c r="AF6" s="2"/>
+      <c r="AG6" s="2"/>
+      <c r="AH6" s="2"/>
+      <c r="AI6" s="2"/>
+      <c r="AJ6" s="2"/>
+      <c r="AK6" s="2"/>
+      <c r="AL6" s="1"/>
     </row>
-    <row r="7" spans="1:38" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A7" s="2"/>
-      <c r="B7" s="4" t="s">
+    <row r="7" spans="1:38" ht="24" x14ac:dyDescent="0.3">
+      <c r="A7" s="1"/>
+      <c r="B7" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="C7" s="2"/>
-      <c r="D7" s="4" t="s">
+      <c r="C7" s="12"/>
+      <c r="D7" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="E7" s="2"/>
-      <c r="F7" s="5">
+      <c r="E7" s="10"/>
+      <c r="F7" s="11">
         <v>31</v>
       </c>
-      <c r="G7" s="5">
+      <c r="G7" s="11">
         <v>30</v>
       </c>
-      <c r="H7" s="5">
+      <c r="H7" s="11">
         <v>29</v>
       </c>
-      <c r="I7" s="5">
+      <c r="I7" s="11">
         <v>28</v>
       </c>
-      <c r="J7" s="5">
+      <c r="J7" s="11">
         <v>27</v>
       </c>
-      <c r="K7" s="5">
+      <c r="K7" s="11">
         <v>26</v>
       </c>
-      <c r="L7" s="5">
+      <c r="L7" s="11">
         <v>25</v>
       </c>
-      <c r="M7" s="5">
+      <c r="M7" s="11">
         <v>24</v>
       </c>
-      <c r="N7" s="5">
+      <c r="N7" s="11">
         <v>23</v>
       </c>
-      <c r="O7" s="5">
+      <c r="O7" s="11">
         <v>22</v>
       </c>
-      <c r="P7" s="5">
+      <c r="P7" s="11">
         <v>21</v>
       </c>
-      <c r="Q7" s="5">
+      <c r="Q7" s="11">
         <v>20</v>
       </c>
-      <c r="R7" s="5">
+      <c r="R7" s="11">
         <v>19</v>
       </c>
-      <c r="S7" s="5">
+      <c r="S7" s="11">
         <v>18</v>
       </c>
-      <c r="T7" s="5">
+      <c r="T7" s="11">
         <v>17</v>
       </c>
-      <c r="U7" s="5">
+      <c r="U7" s="11">
         <v>16</v>
       </c>
-      <c r="V7" s="5">
+      <c r="V7" s="11">
         <v>15</v>
       </c>
-      <c r="W7" s="5">
+      <c r="W7" s="11">
         <v>14</v>
       </c>
-      <c r="X7" s="5">
+      <c r="X7" s="11">
         <v>13</v>
       </c>
-      <c r="Y7" s="5">
+      <c r="Y7" s="11">
         <v>12</v>
       </c>
-      <c r="Z7" s="5">
+      <c r="Z7" s="11">
         <v>11</v>
       </c>
-      <c r="AA7" s="5">
+      <c r="AA7" s="11">
         <v>10</v>
       </c>
-      <c r="AB7" s="5">
+      <c r="AB7" s="11">
         <v>9</v>
       </c>
-      <c r="AC7" s="5">
+      <c r="AC7" s="11">
         <v>8</v>
       </c>
-      <c r="AD7" s="5">
+      <c r="AD7" s="11">
         <v>7</v>
       </c>
-      <c r="AE7" s="5">
+      <c r="AE7" s="11">
         <v>6</v>
       </c>
-      <c r="AF7" s="5">
+      <c r="AF7" s="11">
         <v>5</v>
       </c>
-      <c r="AG7" s="5">
+      <c r="AG7" s="11">
         <v>4</v>
       </c>
-      <c r="AH7" s="5">
+      <c r="AH7" s="11">
         <v>3</v>
       </c>
-      <c r="AI7" s="5">
+      <c r="AI7" s="11">
         <v>2</v>
       </c>
-      <c r="AJ7" s="5">
+      <c r="AJ7" s="11">
         <v>1</v>
       </c>
-      <c r="AK7" s="5">
+      <c r="AK7" s="11">
         <v>0</v>
       </c>
-      <c r="AL7" s="2"/>
+      <c r="AL7" s="1"/>
     </row>
-    <row r="8" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="A8" s="2"/>
-      <c r="B8" s="2"/>
-      <c r="C8" s="2"/>
-      <c r="D8" s="2"/>
-      <c r="E8" s="2"/>
-      <c r="F8" s="2"/>
-      <c r="G8" s="2"/>
-      <c r="H8" s="2"/>
-      <c r="I8" s="2"/>
-      <c r="J8" s="2"/>
-      <c r="K8" s="2"/>
-      <c r="L8" s="2"/>
-      <c r="M8" s="2"/>
-      <c r="N8" s="2"/>
-      <c r="O8" s="2"/>
-      <c r="P8" s="2"/>
-      <c r="Q8" s="2"/>
-      <c r="R8" s="2"/>
-      <c r="S8" s="2"/>
-      <c r="T8" s="2"/>
-      <c r="U8" s="2"/>
-      <c r="V8" s="2"/>
-      <c r="W8" s="2"/>
-      <c r="X8" s="2"/>
-      <c r="Y8" s="2"/>
-      <c r="Z8" s="2"/>
-      <c r="AA8" s="2"/>
-      <c r="AB8" s="2"/>
-      <c r="AC8" s="2"/>
-      <c r="AD8" s="2"/>
-      <c r="AE8" s="2"/>
-      <c r="AF8" s="2"/>
-      <c r="AG8" s="2"/>
-      <c r="AH8" s="2"/>
-      <c r="AI8" s="2"/>
-      <c r="AJ8" s="2"/>
-      <c r="AK8" s="2"/>
-      <c r="AL8" s="2"/>
+    <row r="8" spans="1:38" ht="23" x14ac:dyDescent="0.25">
+      <c r="A8" s="1"/>
+      <c r="B8" s="12"/>
+      <c r="C8" s="12"/>
+      <c r="D8" s="12"/>
+      <c r="E8" s="9"/>
+      <c r="F8" s="9"/>
+      <c r="G8" s="9"/>
+      <c r="H8" s="9"/>
+      <c r="I8" s="9"/>
+      <c r="J8" s="9"/>
+      <c r="K8" s="9"/>
+      <c r="L8" s="9"/>
+      <c r="M8" s="9"/>
+      <c r="N8" s="9"/>
+      <c r="O8" s="9"/>
+      <c r="P8" s="9"/>
+      <c r="Q8" s="9"/>
+      <c r="R8" s="9"/>
+      <c r="S8" s="9"/>
+      <c r="T8" s="9"/>
+      <c r="U8" s="9"/>
+      <c r="V8" s="9"/>
+      <c r="W8" s="9"/>
+      <c r="X8" s="9"/>
+      <c r="Y8" s="9"/>
+      <c r="Z8" s="9"/>
+      <c r="AA8" s="9"/>
+      <c r="AB8" s="9"/>
+      <c r="AC8" s="9"/>
+      <c r="AD8" s="9"/>
+      <c r="AE8" s="9"/>
+      <c r="AF8" s="9"/>
+      <c r="AG8" s="9"/>
+      <c r="AH8" s="9"/>
+      <c r="AI8" s="9"/>
+      <c r="AJ8" s="9"/>
+      <c r="AK8" s="9"/>
+      <c r="AL8" s="1"/>
     </row>
-    <row r="9" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="A9" s="2"/>
-      <c r="B9" s="6" t="s">
+    <row r="9" spans="1:38" ht="24" x14ac:dyDescent="0.3">
+      <c r="A9" s="1"/>
+      <c r="B9" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="C9" s="7"/>
-      <c r="D9" s="6" t="s">
+      <c r="C9" s="2"/>
+      <c r="D9" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="E9" s="2"/>
-      <c r="F9" s="8"/>
-      <c r="G9" s="8"/>
-      <c r="H9" s="8"/>
-      <c r="I9" s="8"/>
-      <c r="J9" s="8"/>
-      <c r="K9" s="8"/>
-      <c r="L9" s="8"/>
-      <c r="M9" s="8"/>
-      <c r="N9" s="8"/>
-      <c r="O9" s="8"/>
-      <c r="P9" s="8"/>
-      <c r="Q9" s="8"/>
-      <c r="R9" s="8"/>
-      <c r="S9" s="8"/>
-      <c r="T9" s="8"/>
-      <c r="U9" s="8"/>
-      <c r="V9" s="8"/>
-      <c r="W9" s="8"/>
-      <c r="X9" s="8"/>
-      <c r="Y9" s="8"/>
-      <c r="Z9" s="8"/>
-      <c r="AA9" s="8"/>
-      <c r="AB9" s="8"/>
-      <c r="AC9" s="8"/>
-      <c r="AD9" s="8"/>
-      <c r="AE9" s="8"/>
-      <c r="AF9" s="8"/>
-      <c r="AG9" s="8"/>
-      <c r="AH9" s="8"/>
-      <c r="AI9" s="8"/>
-      <c r="AJ9" s="8"/>
-      <c r="AK9" s="8"/>
-      <c r="AL9" s="2"/>
+      <c r="E9" s="9"/>
+      <c r="F9" s="14"/>
+      <c r="G9" s="14"/>
+      <c r="H9" s="14"/>
+      <c r="I9" s="14"/>
+      <c r="J9" s="14"/>
+      <c r="K9" s="14"/>
+      <c r="L9" s="14"/>
+      <c r="M9" s="14"/>
+      <c r="N9" s="14"/>
+      <c r="O9" s="14"/>
+      <c r="P9" s="14"/>
+      <c r="Q9" s="14"/>
+      <c r="R9" s="14"/>
+      <c r="S9" s="14"/>
+      <c r="T9" s="14"/>
+      <c r="U9" s="14"/>
+      <c r="V9" s="14"/>
+      <c r="W9" s="14"/>
+      <c r="X9" s="14"/>
+      <c r="Y9" s="14"/>
+      <c r="Z9" s="14"/>
+      <c r="AA9" s="14"/>
+      <c r="AB9" s="14"/>
+      <c r="AC9" s="14"/>
+      <c r="AD9" s="14"/>
+      <c r="AE9" s="14"/>
+      <c r="AF9" s="14"/>
+      <c r="AG9" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="AH9" s="16"/>
+      <c r="AI9" s="17"/>
+      <c r="AJ9" s="18" t="s">
+        <v>19</v>
+      </c>
+      <c r="AK9" s="18" t="s">
+        <v>18</v>
+      </c>
+      <c r="AL9" s="1"/>
     </row>
-    <row r="10" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="A10" s="2"/>
-      <c r="B10" s="6" t="s">
+    <row r="10" spans="1:38" ht="24" x14ac:dyDescent="0.3">
+      <c r="A10" s="1"/>
+      <c r="B10" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="C10" s="7"/>
-      <c r="D10" s="6" t="s">
+      <c r="C10" s="2"/>
+      <c r="D10" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="E10" s="2"/>
-      <c r="F10" s="9" t="s">
+      <c r="E10" s="9"/>
+      <c r="F10" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="G10" s="10"/>
-      <c r="H10" s="10"/>
-      <c r="I10" s="10"/>
-      <c r="J10" s="10"/>
-      <c r="K10" s="10"/>
-      <c r="L10" s="10"/>
-      <c r="M10" s="11"/>
-      <c r="N10" s="9" t="s">
+      <c r="G10" s="20"/>
+      <c r="H10" s="20"/>
+      <c r="I10" s="20"/>
+      <c r="J10" s="20"/>
+      <c r="K10" s="20"/>
+      <c r="L10" s="20"/>
+      <c r="M10" s="21"/>
+      <c r="N10" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="O10" s="10"/>
-      <c r="P10" s="10"/>
-      <c r="Q10" s="10"/>
-      <c r="R10" s="10"/>
-      <c r="S10" s="10"/>
-      <c r="T10" s="10"/>
-      <c r="U10" s="11"/>
-      <c r="V10" s="9" t="s">
+      <c r="O10" s="20"/>
+      <c r="P10" s="20"/>
+      <c r="Q10" s="20"/>
+      <c r="R10" s="20"/>
+      <c r="S10" s="20"/>
+      <c r="T10" s="20"/>
+      <c r="U10" s="21"/>
+      <c r="V10" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="W10" s="10"/>
-      <c r="X10" s="10"/>
-      <c r="Y10" s="10"/>
-      <c r="Z10" s="10"/>
-      <c r="AA10" s="10"/>
-      <c r="AB10" s="10"/>
-      <c r="AC10" s="11"/>
-      <c r="AD10" s="9" t="s">
+      <c r="W10" s="20"/>
+      <c r="X10" s="20"/>
+      <c r="Y10" s="20"/>
+      <c r="Z10" s="20"/>
+      <c r="AA10" s="20"/>
+      <c r="AB10" s="20"/>
+      <c r="AC10" s="21"/>
+      <c r="AD10" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="AE10" s="10"/>
-      <c r="AF10" s="10"/>
-      <c r="AG10" s="10"/>
-      <c r="AH10" s="10"/>
-      <c r="AI10" s="10"/>
-      <c r="AJ10" s="10"/>
-      <c r="AK10" s="11"/>
-      <c r="AL10" s="2"/>
+      <c r="AE10" s="20"/>
+      <c r="AF10" s="20"/>
+      <c r="AG10" s="20"/>
+      <c r="AH10" s="20"/>
+      <c r="AI10" s="20"/>
+      <c r="AJ10" s="20"/>
+      <c r="AK10" s="21"/>
+      <c r="AL10" s="1"/>
     </row>
-    <row r="11" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="A11" s="2"/>
-      <c r="B11" s="6" t="s">
+    <row r="11" spans="1:38" ht="24" x14ac:dyDescent="0.3">
+      <c r="A11" s="1"/>
+      <c r="B11" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="C11" s="7"/>
-      <c r="D11" s="6" t="s">
+      <c r="C11" s="2"/>
+      <c r="D11" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="E11" s="2"/>
-      <c r="F11" s="9" t="s">
+      <c r="E11" s="9"/>
+      <c r="F11" s="19" t="s">
         <v>15</v>
       </c>
-      <c r="G11" s="10"/>
-      <c r="H11" s="10"/>
-      <c r="I11" s="10"/>
-      <c r="J11" s="10"/>
-      <c r="K11" s="10"/>
-      <c r="L11" s="10"/>
-      <c r="M11" s="11"/>
-      <c r="N11" s="9" t="s">
+      <c r="G11" s="20"/>
+      <c r="H11" s="20"/>
+      <c r="I11" s="20"/>
+      <c r="J11" s="20"/>
+      <c r="K11" s="20"/>
+      <c r="L11" s="20"/>
+      <c r="M11" s="21"/>
+      <c r="N11" s="19" t="s">
         <v>14</v>
       </c>
-      <c r="O11" s="10"/>
-      <c r="P11" s="10"/>
-      <c r="Q11" s="10"/>
-      <c r="R11" s="10"/>
-      <c r="S11" s="10"/>
-      <c r="T11" s="10"/>
-      <c r="U11" s="11"/>
-      <c r="V11" s="9" t="s">
+      <c r="O11" s="20"/>
+      <c r="P11" s="20"/>
+      <c r="Q11" s="20"/>
+      <c r="R11" s="20"/>
+      <c r="S11" s="20"/>
+      <c r="T11" s="20"/>
+      <c r="U11" s="21"/>
+      <c r="V11" s="19" t="s">
         <v>13</v>
       </c>
-      <c r="W11" s="10"/>
-      <c r="X11" s="10"/>
-      <c r="Y11" s="10"/>
-      <c r="Z11" s="10"/>
-      <c r="AA11" s="10"/>
-      <c r="AB11" s="10"/>
-      <c r="AC11" s="11"/>
-      <c r="AD11" s="9" t="s">
+      <c r="W11" s="20"/>
+      <c r="X11" s="20"/>
+      <c r="Y11" s="20"/>
+      <c r="Z11" s="20"/>
+      <c r="AA11" s="20"/>
+      <c r="AB11" s="20"/>
+      <c r="AC11" s="21"/>
+      <c r="AD11" s="19" t="s">
         <v>12</v>
       </c>
-      <c r="AE11" s="10"/>
-      <c r="AF11" s="10"/>
-      <c r="AG11" s="10"/>
-      <c r="AH11" s="10"/>
-      <c r="AI11" s="10"/>
-      <c r="AJ11" s="10"/>
-      <c r="AK11" s="11"/>
-      <c r="AL11" s="2"/>
+      <c r="AE11" s="20"/>
+      <c r="AF11" s="20"/>
+      <c r="AG11" s="20"/>
+      <c r="AH11" s="20"/>
+      <c r="AI11" s="20"/>
+      <c r="AJ11" s="20"/>
+      <c r="AK11" s="21"/>
+      <c r="AL11" s="1"/>
     </row>
-    <row r="12" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="A12" s="2"/>
-      <c r="B12" s="6" t="s">
+    <row r="12" spans="1:38" ht="24" x14ac:dyDescent="0.3">
+      <c r="A12" s="1"/>
+      <c r="B12" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="C12" s="7"/>
-      <c r="D12" s="6" t="s">
+      <c r="C12" s="2"/>
+      <c r="D12" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="E12" s="2"/>
-      <c r="F12" s="9" t="s">
+      <c r="E12" s="9"/>
+      <c r="F12" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="G12" s="10"/>
-      <c r="H12" s="10"/>
-      <c r="I12" s="10"/>
-      <c r="J12" s="10"/>
-      <c r="K12" s="10"/>
-      <c r="L12" s="10"/>
-      <c r="M12" s="10"/>
-      <c r="N12" s="10"/>
-      <c r="O12" s="10"/>
-      <c r="P12" s="10"/>
-      <c r="Q12" s="10"/>
-      <c r="R12" s="10"/>
-      <c r="S12" s="10"/>
-      <c r="T12" s="10"/>
-      <c r="U12" s="10"/>
-      <c r="V12" s="10"/>
-      <c r="W12" s="10"/>
-      <c r="X12" s="10"/>
-      <c r="Y12" s="10"/>
-      <c r="Z12" s="10"/>
-      <c r="AA12" s="10"/>
-      <c r="AB12" s="10"/>
-      <c r="AC12" s="10"/>
-      <c r="AD12" s="10"/>
-      <c r="AE12" s="10"/>
-      <c r="AF12" s="10"/>
-      <c r="AG12" s="10"/>
-      <c r="AH12" s="10"/>
-      <c r="AI12" s="10"/>
-      <c r="AJ12" s="10"/>
-      <c r="AK12" s="11"/>
-      <c r="AL12" s="2"/>
+      <c r="G12" s="20"/>
+      <c r="H12" s="20"/>
+      <c r="I12" s="20"/>
+      <c r="J12" s="20"/>
+      <c r="K12" s="20"/>
+      <c r="L12" s="20"/>
+      <c r="M12" s="20"/>
+      <c r="N12" s="20"/>
+      <c r="O12" s="20"/>
+      <c r="P12" s="20"/>
+      <c r="Q12" s="20"/>
+      <c r="R12" s="20"/>
+      <c r="S12" s="20"/>
+      <c r="T12" s="20"/>
+      <c r="U12" s="20"/>
+      <c r="V12" s="20"/>
+      <c r="W12" s="20"/>
+      <c r="X12" s="20"/>
+      <c r="Y12" s="20"/>
+      <c r="Z12" s="20"/>
+      <c r="AA12" s="20"/>
+      <c r="AB12" s="20"/>
+      <c r="AC12" s="20"/>
+      <c r="AD12" s="20"/>
+      <c r="AE12" s="20"/>
+      <c r="AF12" s="20"/>
+      <c r="AG12" s="20"/>
+      <c r="AH12" s="20"/>
+      <c r="AI12" s="20"/>
+      <c r="AJ12" s="20"/>
+      <c r="AK12" s="21"/>
+      <c r="AL12" s="1"/>
     </row>
-    <row r="13" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="A13" s="2"/>
-      <c r="B13" s="2"/>
-      <c r="C13" s="2"/>
-      <c r="D13" s="2"/>
-      <c r="E13" s="2"/>
-      <c r="F13" s="2"/>
-      <c r="G13" s="2"/>
-      <c r="H13" s="2"/>
-      <c r="I13" s="2"/>
-      <c r="J13" s="2"/>
-      <c r="K13" s="2"/>
-      <c r="L13" s="2"/>
-      <c r="M13" s="2"/>
-      <c r="N13" s="2"/>
-      <c r="O13" s="2"/>
-      <c r="P13" s="2"/>
-      <c r="Q13" s="2"/>
-      <c r="R13" s="2"/>
-      <c r="S13" s="2"/>
-      <c r="T13" s="2"/>
-      <c r="U13" s="2"/>
-      <c r="V13" s="2"/>
-      <c r="W13" s="2"/>
-      <c r="X13" s="2"/>
-      <c r="Y13" s="2"/>
-      <c r="Z13" s="2"/>
-      <c r="AA13" s="2"/>
-      <c r="AB13" s="2"/>
-      <c r="AC13" s="2"/>
-      <c r="AD13" s="2"/>
-      <c r="AE13" s="2"/>
-      <c r="AF13" s="2"/>
-      <c r="AG13" s="2"/>
-      <c r="AH13" s="2"/>
-      <c r="AI13" s="2"/>
-      <c r="AJ13" s="2"/>
-      <c r="AK13" s="2"/>
-      <c r="AL13" s="2"/>
+    <row r="13" spans="1:38" x14ac:dyDescent="0.2">
+      <c r="A13" s="1"/>
+      <c r="B13" s="1"/>
+      <c r="C13" s="1"/>
+      <c r="D13" s="1"/>
+      <c r="E13" s="1"/>
+      <c r="F13" s="1"/>
+      <c r="G13" s="1"/>
+      <c r="H13" s="1"/>
+      <c r="I13" s="1"/>
+      <c r="J13" s="1"/>
+      <c r="K13" s="1"/>
+      <c r="L13" s="1"/>
+      <c r="M13" s="1"/>
+      <c r="N13" s="1"/>
+      <c r="O13" s="1"/>
+      <c r="P13" s="1"/>
+      <c r="Q13" s="1"/>
+      <c r="R13" s="1"/>
+      <c r="S13" s="1"/>
+      <c r="T13" s="1"/>
+      <c r="U13" s="1"/>
+      <c r="V13" s="1"/>
+      <c r="W13" s="1"/>
+      <c r="X13" s="1"/>
+      <c r="Y13" s="1"/>
+      <c r="Z13" s="1"/>
+      <c r="AA13" s="1"/>
+      <c r="AB13" s="1"/>
+      <c r="AC13" s="1"/>
+      <c r="AD13" s="1"/>
+      <c r="AE13" s="1"/>
+      <c r="AF13" s="1"/>
+      <c r="AG13" s="1"/>
+      <c r="AH13" s="1"/>
+      <c r="AI13" s="1"/>
+      <c r="AJ13" s="1"/>
+      <c r="AK13" s="1"/>
+      <c r="AL13" s="1"/>
     </row>
-    <row r="14" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="A14" s="2"/>
-      <c r="B14" s="2"/>
-      <c r="C14" s="2"/>
-      <c r="D14" s="2"/>
-      <c r="E14" s="2"/>
-      <c r="F14" s="2"/>
-      <c r="G14" s="2"/>
-      <c r="H14" s="2"/>
-      <c r="I14" s="2"/>
-      <c r="J14" s="2"/>
-      <c r="K14" s="2"/>
-      <c r="L14" s="2"/>
-      <c r="M14" s="2"/>
-      <c r="N14" s="2"/>
-      <c r="O14" s="2"/>
-      <c r="P14" s="2"/>
-      <c r="Q14" s="2"/>
-      <c r="R14" s="2"/>
-      <c r="S14" s="2"/>
-      <c r="T14" s="2"/>
-      <c r="U14" s="2"/>
-      <c r="V14" s="2"/>
-      <c r="W14" s="2"/>
-      <c r="X14" s="2"/>
-      <c r="Y14" s="2"/>
-      <c r="Z14" s="2"/>
-      <c r="AA14" s="2"/>
-      <c r="AB14" s="2"/>
-      <c r="AC14" s="2"/>
-      <c r="AD14" s="2"/>
-      <c r="AE14" s="2"/>
-      <c r="AF14" s="2"/>
-      <c r="AG14" s="2"/>
-      <c r="AH14" s="2"/>
-      <c r="AI14" s="2"/>
-      <c r="AJ14" s="2"/>
-      <c r="AK14" s="2"/>
-      <c r="AL14" s="2"/>
+    <row r="14" spans="1:38" x14ac:dyDescent="0.2">
+      <c r="A14" s="1"/>
+      <c r="B14" s="1"/>
+      <c r="C14" s="1"/>
+      <c r="D14" s="1"/>
+      <c r="E14" s="1"/>
+      <c r="F14" s="1"/>
+      <c r="G14" s="1"/>
+      <c r="H14" s="1"/>
+      <c r="I14" s="1"/>
+      <c r="J14" s="1"/>
+      <c r="K14" s="1"/>
+      <c r="L14" s="1"/>
+      <c r="M14" s="1"/>
+      <c r="N14" s="1"/>
+      <c r="O14" s="1"/>
+      <c r="P14" s="1"/>
+      <c r="Q14" s="1"/>
+      <c r="R14" s="1"/>
+      <c r="S14" s="1"/>
+      <c r="T14" s="1"/>
+      <c r="U14" s="1"/>
+      <c r="V14" s="1"/>
+      <c r="W14" s="1"/>
+      <c r="X14" s="1"/>
+      <c r="Y14" s="1"/>
+      <c r="Z14" s="1"/>
+      <c r="AA14" s="1"/>
+      <c r="AB14" s="1"/>
+      <c r="AC14" s="1"/>
+      <c r="AD14" s="1"/>
+      <c r="AE14" s="1"/>
+      <c r="AF14" s="1"/>
+      <c r="AG14" s="1"/>
+      <c r="AH14" s="1"/>
+      <c r="AI14" s="1"/>
+      <c r="AJ14" s="1"/>
+      <c r="AK14" s="1"/>
+      <c r="AL14" s="1"/>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="11">
+    <mergeCell ref="F12:AK12"/>
+    <mergeCell ref="F4:AK5"/>
+    <mergeCell ref="F10:M10"/>
+    <mergeCell ref="F11:M11"/>
+    <mergeCell ref="AG9:AI9"/>
     <mergeCell ref="AD10:AK10"/>
     <mergeCell ref="V10:AC10"/>
     <mergeCell ref="N10:U10"/>
     <mergeCell ref="N11:U11"/>
     <mergeCell ref="V11:AC11"/>
     <mergeCell ref="AD11:AK11"/>
-    <mergeCell ref="F12:AK12"/>
-    <mergeCell ref="F4:AK5"/>
-    <mergeCell ref="F10:M10"/>
-    <mergeCell ref="F11:M11"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/doc/RegisterMapping.xlsx
+++ b/doc/RegisterMapping.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/varunposimsetty/Desktop/SAL_TaskAssignment/doc/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB11A0A5-69C8-594D-BDC9-34BCA5EC6E3E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB002D97-203E-C645-973C-254ABC55AE1A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="720" windowWidth="29400" windowHeight="18400" xr2:uid="{DE537055-B1E9-4F17-92F2-EA73B7270BD6}"/>
   </bookViews>
@@ -89,9 +89,6 @@
     <t>Result (Sign Extended)</t>
   </si>
   <si>
-    <t>w</t>
-  </si>
-  <si>
     <t>status</t>
   </si>
   <si>
@@ -99,6 +96,9 @@
   </si>
   <si>
     <t>pipe_status</t>
+  </si>
+  <si>
+    <t>w+r</t>
   </si>
 </sst>
 </file>
@@ -316,24 +316,6 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -346,15 +328,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -363,6 +336,33 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -704,7 +704,7 @@
   <dimension ref="A4:AL14"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="66" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4:AK12"/>
+      <selection activeCell="Q21" sqref="Q21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -715,92 +715,92 @@
   <sheetData>
     <row r="4" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1"/>
-      <c r="B4" s="9"/>
-      <c r="C4" s="9"/>
-      <c r="D4" s="9"/>
-      <c r="E4" s="9"/>
-      <c r="F4" s="3" t="s">
+      <c r="B4" s="3"/>
+      <c r="C4" s="3"/>
+      <c r="D4" s="3"/>
+      <c r="E4" s="3"/>
+      <c r="F4" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="G4" s="4"/>
-      <c r="H4" s="4"/>
-      <c r="I4" s="4"/>
-      <c r="J4" s="4"/>
-      <c r="K4" s="4"/>
-      <c r="L4" s="4"/>
-      <c r="M4" s="4"/>
-      <c r="N4" s="4"/>
-      <c r="O4" s="4"/>
-      <c r="P4" s="4"/>
-      <c r="Q4" s="4"/>
-      <c r="R4" s="4"/>
-      <c r="S4" s="4"/>
-      <c r="T4" s="4"/>
-      <c r="U4" s="4"/>
-      <c r="V4" s="4"/>
-      <c r="W4" s="4"/>
-      <c r="X4" s="4"/>
-      <c r="Y4" s="4"/>
-      <c r="Z4" s="4"/>
-      <c r="AA4" s="4"/>
-      <c r="AB4" s="4"/>
-      <c r="AC4" s="4"/>
-      <c r="AD4" s="4"/>
-      <c r="AE4" s="4"/>
-      <c r="AF4" s="4"/>
-      <c r="AG4" s="4"/>
-      <c r="AH4" s="4"/>
-      <c r="AI4" s="4"/>
-      <c r="AJ4" s="4"/>
-      <c r="AK4" s="5"/>
+      <c r="G4" s="14"/>
+      <c r="H4" s="14"/>
+      <c r="I4" s="14"/>
+      <c r="J4" s="14"/>
+      <c r="K4" s="14"/>
+      <c r="L4" s="14"/>
+      <c r="M4" s="14"/>
+      <c r="N4" s="14"/>
+      <c r="O4" s="14"/>
+      <c r="P4" s="14"/>
+      <c r="Q4" s="14"/>
+      <c r="R4" s="14"/>
+      <c r="S4" s="14"/>
+      <c r="T4" s="14"/>
+      <c r="U4" s="14"/>
+      <c r="V4" s="14"/>
+      <c r="W4" s="14"/>
+      <c r="X4" s="14"/>
+      <c r="Y4" s="14"/>
+      <c r="Z4" s="14"/>
+      <c r="AA4" s="14"/>
+      <c r="AB4" s="14"/>
+      <c r="AC4" s="14"/>
+      <c r="AD4" s="14"/>
+      <c r="AE4" s="14"/>
+      <c r="AF4" s="14"/>
+      <c r="AG4" s="14"/>
+      <c r="AH4" s="14"/>
+      <c r="AI4" s="14"/>
+      <c r="AJ4" s="14"/>
+      <c r="AK4" s="15"/>
       <c r="AL4" s="1"/>
     </row>
     <row r="5" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1"/>
-      <c r="B5" s="9"/>
-      <c r="C5" s="9"/>
-      <c r="D5" s="9"/>
-      <c r="E5" s="9"/>
-      <c r="F5" s="6"/>
-      <c r="G5" s="7"/>
-      <c r="H5" s="7"/>
-      <c r="I5" s="7"/>
-      <c r="J5" s="7"/>
-      <c r="K5" s="7"/>
-      <c r="L5" s="7"/>
-      <c r="M5" s="7"/>
-      <c r="N5" s="7"/>
-      <c r="O5" s="7"/>
-      <c r="P5" s="7"/>
-      <c r="Q5" s="7"/>
-      <c r="R5" s="7"/>
-      <c r="S5" s="7"/>
-      <c r="T5" s="7"/>
-      <c r="U5" s="7"/>
-      <c r="V5" s="7"/>
-      <c r="W5" s="7"/>
-      <c r="X5" s="7"/>
-      <c r="Y5" s="7"/>
-      <c r="Z5" s="7"/>
-      <c r="AA5" s="7"/>
-      <c r="AB5" s="7"/>
-      <c r="AC5" s="7"/>
-      <c r="AD5" s="7"/>
-      <c r="AE5" s="7"/>
-      <c r="AF5" s="7"/>
-      <c r="AG5" s="7"/>
-      <c r="AH5" s="7"/>
-      <c r="AI5" s="7"/>
-      <c r="AJ5" s="7"/>
-      <c r="AK5" s="8"/>
+      <c r="B5" s="3"/>
+      <c r="C5" s="3"/>
+      <c r="D5" s="3"/>
+      <c r="E5" s="3"/>
+      <c r="F5" s="16"/>
+      <c r="G5" s="17"/>
+      <c r="H5" s="17"/>
+      <c r="I5" s="17"/>
+      <c r="J5" s="17"/>
+      <c r="K5" s="17"/>
+      <c r="L5" s="17"/>
+      <c r="M5" s="17"/>
+      <c r="N5" s="17"/>
+      <c r="O5" s="17"/>
+      <c r="P5" s="17"/>
+      <c r="Q5" s="17"/>
+      <c r="R5" s="17"/>
+      <c r="S5" s="17"/>
+      <c r="T5" s="17"/>
+      <c r="U5" s="17"/>
+      <c r="V5" s="17"/>
+      <c r="W5" s="17"/>
+      <c r="X5" s="17"/>
+      <c r="Y5" s="17"/>
+      <c r="Z5" s="17"/>
+      <c r="AA5" s="17"/>
+      <c r="AB5" s="17"/>
+      <c r="AC5" s="17"/>
+      <c r="AD5" s="17"/>
+      <c r="AE5" s="17"/>
+      <c r="AF5" s="17"/>
+      <c r="AG5" s="17"/>
+      <c r="AH5" s="17"/>
+      <c r="AI5" s="17"/>
+      <c r="AJ5" s="17"/>
+      <c r="AK5" s="18"/>
       <c r="AL5" s="1"/>
     </row>
     <row r="6" spans="1:38" ht="23" x14ac:dyDescent="0.25">
       <c r="A6" s="1"/>
-      <c r="B6" s="9"/>
-      <c r="C6" s="9"/>
-      <c r="D6" s="9"/>
-      <c r="E6" s="10"/>
+      <c r="B6" s="3"/>
+      <c r="C6" s="3"/>
+      <c r="D6" s="3"/>
+      <c r="E6" s="4"/>
       <c r="F6" s="2"/>
       <c r="G6" s="2"/>
       <c r="H6" s="2"/>
@@ -837,350 +837,350 @@
     </row>
     <row r="7" spans="1:38" ht="24" x14ac:dyDescent="0.3">
       <c r="A7" s="1"/>
-      <c r="B7" s="11" t="s">
+      <c r="B7" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C7" s="12"/>
-      <c r="D7" s="11" t="s">
+      <c r="C7" s="6"/>
+      <c r="D7" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="E7" s="10"/>
-      <c r="F7" s="11">
+      <c r="E7" s="4"/>
+      <c r="F7" s="5">
         <v>31</v>
       </c>
-      <c r="G7" s="11">
+      <c r="G7" s="5">
         <v>30</v>
       </c>
-      <c r="H7" s="11">
+      <c r="H7" s="5">
         <v>29</v>
       </c>
-      <c r="I7" s="11">
+      <c r="I7" s="5">
         <v>28</v>
       </c>
-      <c r="J7" s="11">
+      <c r="J7" s="5">
         <v>27</v>
       </c>
-      <c r="K7" s="11">
+      <c r="K7" s="5">
         <v>26</v>
       </c>
-      <c r="L7" s="11">
+      <c r="L7" s="5">
         <v>25</v>
       </c>
-      <c r="M7" s="11">
+      <c r="M7" s="5">
         <v>24</v>
       </c>
-      <c r="N7" s="11">
+      <c r="N7" s="5">
         <v>23</v>
       </c>
-      <c r="O7" s="11">
+      <c r="O7" s="5">
         <v>22</v>
       </c>
-      <c r="P7" s="11">
+      <c r="P7" s="5">
         <v>21</v>
       </c>
-      <c r="Q7" s="11">
+      <c r="Q7" s="5">
         <v>20</v>
       </c>
-      <c r="R7" s="11">
+      <c r="R7" s="5">
         <v>19</v>
       </c>
-      <c r="S7" s="11">
+      <c r="S7" s="5">
         <v>18</v>
       </c>
-      <c r="T7" s="11">
+      <c r="T7" s="5">
         <v>17</v>
       </c>
-      <c r="U7" s="11">
+      <c r="U7" s="5">
         <v>16</v>
       </c>
-      <c r="V7" s="11">
+      <c r="V7" s="5">
         <v>15</v>
       </c>
-      <c r="W7" s="11">
+      <c r="W7" s="5">
         <v>14</v>
       </c>
-      <c r="X7" s="11">
+      <c r="X7" s="5">
         <v>13</v>
       </c>
-      <c r="Y7" s="11">
+      <c r="Y7" s="5">
         <v>12</v>
       </c>
-      <c r="Z7" s="11">
+      <c r="Z7" s="5">
         <v>11</v>
       </c>
-      <c r="AA7" s="11">
+      <c r="AA7" s="5">
         <v>10</v>
       </c>
-      <c r="AB7" s="11">
+      <c r="AB7" s="5">
         <v>9</v>
       </c>
-      <c r="AC7" s="11">
+      <c r="AC7" s="5">
         <v>8</v>
       </c>
-      <c r="AD7" s="11">
+      <c r="AD7" s="5">
         <v>7</v>
       </c>
-      <c r="AE7" s="11">
+      <c r="AE7" s="5">
         <v>6</v>
       </c>
-      <c r="AF7" s="11">
+      <c r="AF7" s="5">
         <v>5</v>
       </c>
-      <c r="AG7" s="11">
+      <c r="AG7" s="5">
         <v>4</v>
       </c>
-      <c r="AH7" s="11">
+      <c r="AH7" s="5">
         <v>3</v>
       </c>
-      <c r="AI7" s="11">
+      <c r="AI7" s="5">
         <v>2</v>
       </c>
-      <c r="AJ7" s="11">
+      <c r="AJ7" s="5">
         <v>1</v>
       </c>
-      <c r="AK7" s="11">
+      <c r="AK7" s="5">
         <v>0</v>
       </c>
       <c r="AL7" s="1"/>
     </row>
     <row r="8" spans="1:38" ht="23" x14ac:dyDescent="0.25">
       <c r="A8" s="1"/>
-      <c r="B8" s="12"/>
-      <c r="C8" s="12"/>
-      <c r="D8" s="12"/>
-      <c r="E8" s="9"/>
-      <c r="F8" s="9"/>
-      <c r="G8" s="9"/>
-      <c r="H8" s="9"/>
-      <c r="I8" s="9"/>
-      <c r="J8" s="9"/>
-      <c r="K8" s="9"/>
-      <c r="L8" s="9"/>
-      <c r="M8" s="9"/>
-      <c r="N8" s="9"/>
-      <c r="O8" s="9"/>
-      <c r="P8" s="9"/>
-      <c r="Q8" s="9"/>
-      <c r="R8" s="9"/>
-      <c r="S8" s="9"/>
-      <c r="T8" s="9"/>
-      <c r="U8" s="9"/>
-      <c r="V8" s="9"/>
-      <c r="W8" s="9"/>
-      <c r="X8" s="9"/>
-      <c r="Y8" s="9"/>
-      <c r="Z8" s="9"/>
-      <c r="AA8" s="9"/>
-      <c r="AB8" s="9"/>
-      <c r="AC8" s="9"/>
-      <c r="AD8" s="9"/>
-      <c r="AE8" s="9"/>
-      <c r="AF8" s="9"/>
-      <c r="AG8" s="9"/>
-      <c r="AH8" s="9"/>
-      <c r="AI8" s="9"/>
-      <c r="AJ8" s="9"/>
-      <c r="AK8" s="9"/>
+      <c r="B8" s="6"/>
+      <c r="C8" s="6"/>
+      <c r="D8" s="6"/>
+      <c r="E8" s="3"/>
+      <c r="F8" s="3"/>
+      <c r="G8" s="3"/>
+      <c r="H8" s="3"/>
+      <c r="I8" s="3"/>
+      <c r="J8" s="3"/>
+      <c r="K8" s="3"/>
+      <c r="L8" s="3"/>
+      <c r="M8" s="3"/>
+      <c r="N8" s="3"/>
+      <c r="O8" s="3"/>
+      <c r="P8" s="3"/>
+      <c r="Q8" s="3"/>
+      <c r="R8" s="3"/>
+      <c r="S8" s="3"/>
+      <c r="T8" s="3"/>
+      <c r="U8" s="3"/>
+      <c r="V8" s="3"/>
+      <c r="W8" s="3"/>
+      <c r="X8" s="3"/>
+      <c r="Y8" s="3"/>
+      <c r="Z8" s="3"/>
+      <c r="AA8" s="3"/>
+      <c r="AB8" s="3"/>
+      <c r="AC8" s="3"/>
+      <c r="AD8" s="3"/>
+      <c r="AE8" s="3"/>
+      <c r="AF8" s="3"/>
+      <c r="AG8" s="3"/>
+      <c r="AH8" s="3"/>
+      <c r="AI8" s="3"/>
+      <c r="AJ8" s="3"/>
+      <c r="AK8" s="3"/>
       <c r="AL8" s="1"/>
     </row>
     <row r="9" spans="1:38" ht="24" x14ac:dyDescent="0.3">
       <c r="A9" s="1"/>
-      <c r="B9" s="13" t="s">
+      <c r="B9" s="7" t="s">
         <v>3</v>
       </c>
       <c r="C9" s="2"/>
-      <c r="D9" s="13" t="s">
+      <c r="D9" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="E9" s="9"/>
-      <c r="F9" s="14"/>
-      <c r="G9" s="14"/>
-      <c r="H9" s="14"/>
-      <c r="I9" s="14"/>
-      <c r="J9" s="14"/>
-      <c r="K9" s="14"/>
-      <c r="L9" s="14"/>
-      <c r="M9" s="14"/>
-      <c r="N9" s="14"/>
-      <c r="O9" s="14"/>
-      <c r="P9" s="14"/>
-      <c r="Q9" s="14"/>
-      <c r="R9" s="14"/>
-      <c r="S9" s="14"/>
-      <c r="T9" s="14"/>
-      <c r="U9" s="14"/>
-      <c r="V9" s="14"/>
-      <c r="W9" s="14"/>
-      <c r="X9" s="14"/>
-      <c r="Y9" s="14"/>
-      <c r="Z9" s="14"/>
-      <c r="AA9" s="14"/>
-      <c r="AB9" s="14"/>
-      <c r="AC9" s="14"/>
-      <c r="AD9" s="14"/>
-      <c r="AE9" s="14"/>
-      <c r="AF9" s="14"/>
-      <c r="AG9" s="15" t="s">
-        <v>20</v>
-      </c>
-      <c r="AH9" s="16"/>
-      <c r="AI9" s="17"/>
-      <c r="AJ9" s="18" t="s">
+      <c r="E9" s="3"/>
+      <c r="F9" s="8"/>
+      <c r="G9" s="8"/>
+      <c r="H9" s="8"/>
+      <c r="I9" s="8"/>
+      <c r="J9" s="8"/>
+      <c r="K9" s="8"/>
+      <c r="L9" s="8"/>
+      <c r="M9" s="8"/>
+      <c r="N9" s="8"/>
+      <c r="O9" s="8"/>
+      <c r="P9" s="8"/>
+      <c r="Q9" s="8"/>
+      <c r="R9" s="8"/>
+      <c r="S9" s="8"/>
+      <c r="T9" s="8"/>
+      <c r="U9" s="8"/>
+      <c r="V9" s="8"/>
+      <c r="W9" s="8"/>
+      <c r="X9" s="8"/>
+      <c r="Y9" s="8"/>
+      <c r="Z9" s="8"/>
+      <c r="AA9" s="8"/>
+      <c r="AB9" s="8"/>
+      <c r="AC9" s="8"/>
+      <c r="AD9" s="8"/>
+      <c r="AE9" s="8"/>
+      <c r="AF9" s="8"/>
+      <c r="AG9" s="19" t="s">
         <v>19</v>
       </c>
-      <c r="AK9" s="18" t="s">
+      <c r="AH9" s="20"/>
+      <c r="AI9" s="21"/>
+      <c r="AJ9" s="9" t="s">
         <v>18</v>
+      </c>
+      <c r="AK9" s="9" t="s">
+        <v>17</v>
       </c>
       <c r="AL9" s="1"/>
     </row>
     <row r="10" spans="1:38" ht="24" x14ac:dyDescent="0.3">
       <c r="A10" s="1"/>
-      <c r="B10" s="13" t="s">
+      <c r="B10" s="7" t="s">
         <v>5</v>
       </c>
       <c r="C10" s="2"/>
-      <c r="D10" s="13" t="s">
-        <v>4</v>
-      </c>
-      <c r="E10" s="9"/>
-      <c r="F10" s="19" t="s">
+      <c r="D10" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="E10" s="3"/>
+      <c r="F10" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="G10" s="20"/>
-      <c r="H10" s="20"/>
-      <c r="I10" s="20"/>
-      <c r="J10" s="20"/>
-      <c r="K10" s="20"/>
-      <c r="L10" s="20"/>
-      <c r="M10" s="21"/>
-      <c r="N10" s="19" t="s">
+      <c r="G10" s="11"/>
+      <c r="H10" s="11"/>
+      <c r="I10" s="11"/>
+      <c r="J10" s="11"/>
+      <c r="K10" s="11"/>
+      <c r="L10" s="11"/>
+      <c r="M10" s="12"/>
+      <c r="N10" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="O10" s="20"/>
-      <c r="P10" s="20"/>
-      <c r="Q10" s="20"/>
-      <c r="R10" s="20"/>
-      <c r="S10" s="20"/>
-      <c r="T10" s="20"/>
-      <c r="U10" s="21"/>
-      <c r="V10" s="19" t="s">
+      <c r="O10" s="11"/>
+      <c r="P10" s="11"/>
+      <c r="Q10" s="11"/>
+      <c r="R10" s="11"/>
+      <c r="S10" s="11"/>
+      <c r="T10" s="11"/>
+      <c r="U10" s="12"/>
+      <c r="V10" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="W10" s="20"/>
-      <c r="X10" s="20"/>
-      <c r="Y10" s="20"/>
-      <c r="Z10" s="20"/>
-      <c r="AA10" s="20"/>
-      <c r="AB10" s="20"/>
-      <c r="AC10" s="21"/>
-      <c r="AD10" s="19" t="s">
+      <c r="W10" s="11"/>
+      <c r="X10" s="11"/>
+      <c r="Y10" s="11"/>
+      <c r="Z10" s="11"/>
+      <c r="AA10" s="11"/>
+      <c r="AB10" s="11"/>
+      <c r="AC10" s="12"/>
+      <c r="AD10" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="AE10" s="20"/>
-      <c r="AF10" s="20"/>
-      <c r="AG10" s="20"/>
-      <c r="AH10" s="20"/>
-      <c r="AI10" s="20"/>
-      <c r="AJ10" s="20"/>
-      <c r="AK10" s="21"/>
+      <c r="AE10" s="11"/>
+      <c r="AF10" s="11"/>
+      <c r="AG10" s="11"/>
+      <c r="AH10" s="11"/>
+      <c r="AI10" s="11"/>
+      <c r="AJ10" s="11"/>
+      <c r="AK10" s="12"/>
       <c r="AL10" s="1"/>
     </row>
     <row r="11" spans="1:38" ht="24" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
-      <c r="B11" s="13" t="s">
+      <c r="B11" s="7" t="s">
         <v>6</v>
       </c>
       <c r="C11" s="2"/>
-      <c r="D11" s="13" t="s">
-        <v>4</v>
-      </c>
-      <c r="E11" s="9"/>
-      <c r="F11" s="19" t="s">
+      <c r="D11" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="E11" s="3"/>
+      <c r="F11" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="G11" s="20"/>
-      <c r="H11" s="20"/>
-      <c r="I11" s="20"/>
-      <c r="J11" s="20"/>
-      <c r="K11" s="20"/>
-      <c r="L11" s="20"/>
-      <c r="M11" s="21"/>
-      <c r="N11" s="19" t="s">
+      <c r="G11" s="11"/>
+      <c r="H11" s="11"/>
+      <c r="I11" s="11"/>
+      <c r="J11" s="11"/>
+      <c r="K11" s="11"/>
+      <c r="L11" s="11"/>
+      <c r="M11" s="12"/>
+      <c r="N11" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="O11" s="20"/>
-      <c r="P11" s="20"/>
-      <c r="Q11" s="20"/>
-      <c r="R11" s="20"/>
-      <c r="S11" s="20"/>
-      <c r="T11" s="20"/>
-      <c r="U11" s="21"/>
-      <c r="V11" s="19" t="s">
+      <c r="O11" s="11"/>
+      <c r="P11" s="11"/>
+      <c r="Q11" s="11"/>
+      <c r="R11" s="11"/>
+      <c r="S11" s="11"/>
+      <c r="T11" s="11"/>
+      <c r="U11" s="12"/>
+      <c r="V11" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="W11" s="20"/>
-      <c r="X11" s="20"/>
-      <c r="Y11" s="20"/>
-      <c r="Z11" s="20"/>
-      <c r="AA11" s="20"/>
-      <c r="AB11" s="20"/>
-      <c r="AC11" s="21"/>
-      <c r="AD11" s="19" t="s">
+      <c r="W11" s="11"/>
+      <c r="X11" s="11"/>
+      <c r="Y11" s="11"/>
+      <c r="Z11" s="11"/>
+      <c r="AA11" s="11"/>
+      <c r="AB11" s="11"/>
+      <c r="AC11" s="12"/>
+      <c r="AD11" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="AE11" s="20"/>
-      <c r="AF11" s="20"/>
-      <c r="AG11" s="20"/>
-      <c r="AH11" s="20"/>
-      <c r="AI11" s="20"/>
-      <c r="AJ11" s="20"/>
-      <c r="AK11" s="21"/>
+      <c r="AE11" s="11"/>
+      <c r="AF11" s="11"/>
+      <c r="AG11" s="11"/>
+      <c r="AH11" s="11"/>
+      <c r="AI11" s="11"/>
+      <c r="AJ11" s="11"/>
+      <c r="AK11" s="12"/>
       <c r="AL11" s="1"/>
     </row>
     <row r="12" spans="1:38" ht="24" x14ac:dyDescent="0.3">
       <c r="A12" s="1"/>
-      <c r="B12" s="13" t="s">
+      <c r="B12" s="7" t="s">
         <v>7</v>
       </c>
       <c r="C12" s="2"/>
-      <c r="D12" s="13" t="s">
-        <v>17</v>
-      </c>
-      <c r="E12" s="9"/>
-      <c r="F12" s="19" t="s">
+      <c r="D12" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="E12" s="3"/>
+      <c r="F12" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="G12" s="20"/>
-      <c r="H12" s="20"/>
-      <c r="I12" s="20"/>
-      <c r="J12" s="20"/>
-      <c r="K12" s="20"/>
-      <c r="L12" s="20"/>
-      <c r="M12" s="20"/>
-      <c r="N12" s="20"/>
-      <c r="O12" s="20"/>
-      <c r="P12" s="20"/>
-      <c r="Q12" s="20"/>
-      <c r="R12" s="20"/>
-      <c r="S12" s="20"/>
-      <c r="T12" s="20"/>
-      <c r="U12" s="20"/>
-      <c r="V12" s="20"/>
-      <c r="W12" s="20"/>
-      <c r="X12" s="20"/>
-      <c r="Y12" s="20"/>
-      <c r="Z12" s="20"/>
-      <c r="AA12" s="20"/>
-      <c r="AB12" s="20"/>
-      <c r="AC12" s="20"/>
-      <c r="AD12" s="20"/>
-      <c r="AE12" s="20"/>
-      <c r="AF12" s="20"/>
-      <c r="AG12" s="20"/>
-      <c r="AH12" s="20"/>
-      <c r="AI12" s="20"/>
-      <c r="AJ12" s="20"/>
-      <c r="AK12" s="21"/>
+      <c r="G12" s="11"/>
+      <c r="H12" s="11"/>
+      <c r="I12" s="11"/>
+      <c r="J12" s="11"/>
+      <c r="K12" s="11"/>
+      <c r="L12" s="11"/>
+      <c r="M12" s="11"/>
+      <c r="N12" s="11"/>
+      <c r="O12" s="11"/>
+      <c r="P12" s="11"/>
+      <c r="Q12" s="11"/>
+      <c r="R12" s="11"/>
+      <c r="S12" s="11"/>
+      <c r="T12" s="11"/>
+      <c r="U12" s="11"/>
+      <c r="V12" s="11"/>
+      <c r="W12" s="11"/>
+      <c r="X12" s="11"/>
+      <c r="Y12" s="11"/>
+      <c r="Z12" s="11"/>
+      <c r="AA12" s="11"/>
+      <c r="AB12" s="11"/>
+      <c r="AC12" s="11"/>
+      <c r="AD12" s="11"/>
+      <c r="AE12" s="11"/>
+      <c r="AF12" s="11"/>
+      <c r="AG12" s="11"/>
+      <c r="AH12" s="11"/>
+      <c r="AI12" s="11"/>
+      <c r="AJ12" s="11"/>
+      <c r="AK12" s="12"/>
       <c r="AL12" s="1"/>
     </row>
     <row r="13" spans="1:38" x14ac:dyDescent="0.2">
